--- a/Class Demo Files/Excel Ch4/Band.xlsx
+++ b/Class Demo Files/Excel Ch4/Band.xlsx
@@ -5,24 +5,27 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Allen\BUS140 OUT\Class Demo Files\Excel Ch4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Class Demo Files\Excel Ch4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1635" windowWidth="12000" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Band Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="New Table 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Band Info'!$A:$B,'Band Info'!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="156">
   <si>
     <t>First Name</t>
   </si>
@@ -430,12 +433,72 @@
   </si>
   <si>
     <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone </t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>bkjfbfg</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>vfhjhdf</t>
+  </si>
+  <si>
+    <t>Nanaimo</t>
+  </si>
+  <si>
+    <t>kiaoskd</t>
+  </si>
+  <si>
+    <t>opqepf</t>
+  </si>
+  <si>
+    <t>pwkopd</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>weflrg</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -497,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -521,12 +584,216 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -537,6 +804,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H62" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H62"/>
+  <sortState ref="A2:H62">
+    <sortCondition ref="F2:F62"/>
+    <sortCondition ref="G2:G62"/>
+    <sortCondition ref="A2:A62"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Last Name" dataDxfId="8"/>
+    <tableColumn id="2" name="First Name" dataDxfId="7"/>
+    <tableColumn id="3" name="Gender" dataDxfId="6"/>
+    <tableColumn id="4" name="Birthdate" dataDxfId="5"/>
+    <tableColumn id="5" name="Height (cm)" dataDxfId="4"/>
+    <tableColumn id="6" name="Instrument" dataDxfId="3"/>
+    <tableColumn id="7" name="Class" dataDxfId="2"/>
+    <tableColumn id="8" name="Scholarship" dataDxfId="1" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Gender"/>
+    <tableColumn id="3" name="City"/>
+    <tableColumn id="4" name="Phone "/>
+    <tableColumn id="5" name="Email"/>
+    <tableColumn id="7" name="Age"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,8 +1129,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,487 +1178,487 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="9">
-        <v>42398</v>
+        <v>42686</v>
       </c>
       <c r="E2" s="7">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="5">
-        <v>4450</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="9">
-        <v>42459</v>
+        <v>42387</v>
       </c>
       <c r="E3" s="7">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H3" s="5">
-        <v>4460</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="9">
-        <v>42584</v>
+        <v>42577</v>
       </c>
       <c r="E4" s="7">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4" s="5">
-        <v>4530</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="9">
-        <v>42727</v>
+        <v>42411</v>
       </c>
       <c r="E5" s="7">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H5" s="5">
-        <v>4570</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9">
-        <v>42568</v>
+        <v>42490</v>
       </c>
       <c r="E6" s="7">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H6" s="5">
-        <v>4580</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9">
-        <v>42402</v>
+        <v>42568</v>
       </c>
       <c r="E7" s="7">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="5">
-        <v>4590</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="9">
-        <v>42387</v>
+        <v>42555</v>
       </c>
       <c r="E8" s="7">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8" s="5">
-        <v>4630</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9">
-        <v>42380</v>
+        <v>42516</v>
       </c>
       <c r="E9" s="7">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="5">
-        <v>4650</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="9">
-        <v>42722</v>
+        <v>42680</v>
       </c>
       <c r="E10" s="7">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5">
-        <v>4720</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="9">
-        <v>42488</v>
+        <v>42539</v>
       </c>
       <c r="E11" s="7">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="5">
-        <v>4730</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="9">
-        <v>42492</v>
+        <v>42674</v>
       </c>
       <c r="E12" s="7">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H12" s="5">
-        <v>4780</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="9">
-        <v>42538</v>
+        <v>42488</v>
       </c>
       <c r="E13" s="7">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="5">
-        <v>4790</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="9">
-        <v>42722</v>
+        <v>42542</v>
       </c>
       <c r="E14" s="7">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="5">
-        <v>4800</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="9">
-        <v>42408</v>
+        <v>42400</v>
       </c>
       <c r="E15" s="7">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="5">
-        <v>4900</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="9">
-        <v>42674</v>
+        <v>42722</v>
       </c>
       <c r="E16" s="7">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="5">
-        <v>4920</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="9">
-        <v>42444</v>
+        <v>42469</v>
       </c>
       <c r="E17" s="7">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" s="5">
-        <v>4480</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="9">
-        <v>42510</v>
+        <v>42711</v>
       </c>
       <c r="E18" s="7">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="5">
-        <v>4490</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="9">
-        <v>42555</v>
+        <v>42688</v>
       </c>
       <c r="E19" s="7">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H19" s="5">
-        <v>4500</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="9">
-        <v>42614</v>
+        <v>42402</v>
       </c>
       <c r="E20" s="7">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>14</v>
@@ -1360,865 +1667,865 @@
         <v>8</v>
       </c>
       <c r="H20" s="5">
-        <v>4550</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="9">
-        <v>42686</v>
+        <v>42614</v>
       </c>
       <c r="E21" s="7">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="5">
-        <v>4610</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="9">
-        <v>42422</v>
+        <v>42573</v>
       </c>
       <c r="E22" s="7">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="5">
-        <v>4640</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="9">
-        <v>42476</v>
+        <v>42522</v>
       </c>
       <c r="E23" s="7">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H23" s="5">
-        <v>4660</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="9">
-        <v>42542</v>
+        <v>42496</v>
       </c>
       <c r="E24" s="7">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" s="5">
-        <v>4670</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="9">
-        <v>42587</v>
+        <v>42508</v>
       </c>
       <c r="E25" s="7">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H25" s="5">
-        <v>4680</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="9">
-        <v>42647</v>
+        <v>42459</v>
       </c>
       <c r="E26" s="7">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H26" s="5">
-        <v>4690</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="9">
-        <v>42711</v>
+        <v>42674</v>
       </c>
       <c r="E27" s="7">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="5">
-        <v>4740</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="9">
-        <v>42371</v>
+        <v>42404</v>
       </c>
       <c r="E28" s="7">
         <v>180</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="5">
-        <v>4750</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="9">
-        <v>42404</v>
+        <v>42622</v>
       </c>
       <c r="E29" s="7">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" s="5">
-        <v>4760</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="9">
-        <v>42436</v>
+        <v>42643</v>
       </c>
       <c r="E30" s="7">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H30" s="5">
-        <v>4770</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="9">
-        <v>42478</v>
+        <v>42722</v>
       </c>
       <c r="E31" s="7">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5">
-        <v>4820</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="9">
-        <v>42516</v>
+        <v>42476</v>
       </c>
       <c r="E32" s="7">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="5">
-        <v>4840</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="9">
-        <v>42522</v>
+        <v>42428</v>
       </c>
       <c r="E33" s="7">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" s="5">
-        <v>4860</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="9">
-        <v>42577</v>
+        <v>42730</v>
       </c>
       <c r="E34" s="7">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H34" s="5">
-        <v>4870</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="9">
-        <v>42601</v>
+        <v>42684</v>
       </c>
       <c r="E35" s="7">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="5">
-        <v>4470</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="9">
-        <v>42643</v>
+        <v>42492</v>
       </c>
       <c r="E36" s="7">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H36" s="5">
-        <v>4510</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="9">
-        <v>42674</v>
+        <v>42587</v>
       </c>
       <c r="E37" s="7">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H37" s="5">
-        <v>4520</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="9">
-        <v>42684</v>
+        <v>42510</v>
       </c>
       <c r="E38" s="7">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="5">
-        <v>4540</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="9">
-        <v>42735</v>
+        <v>42727</v>
       </c>
       <c r="E39" s="7">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="5">
-        <v>4560</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="9">
-        <v>42688</v>
+        <v>42443</v>
       </c>
       <c r="E40" s="7">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="5">
-        <v>4600</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="9">
-        <v>42670</v>
+        <v>42478</v>
       </c>
       <c r="E41" s="7">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41" s="5">
-        <v>4620</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="9">
-        <v>42622</v>
+        <v>42552</v>
       </c>
       <c r="E42" s="7">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="5">
-        <v>4700</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" s="9">
-        <v>42583</v>
+        <v>42601</v>
       </c>
       <c r="E43" s="7">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H43" s="5">
-        <v>4710</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="9">
-        <v>42552</v>
+        <v>42422</v>
       </c>
       <c r="E44" s="7">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H44" s="5">
-        <v>4810</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="9">
-        <v>42539</v>
+        <v>42380</v>
       </c>
       <c r="E45" s="7">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="5">
-        <v>4830</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="9">
-        <v>42496</v>
+        <v>42414</v>
       </c>
       <c r="E46" s="7">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="5">
-        <v>4850</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="9">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="E47" s="7">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H47" s="5">
-        <v>4880</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="9">
-        <v>42460</v>
+        <v>42735</v>
       </c>
       <c r="E48" s="7">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H48" s="5">
-        <v>4890</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="9">
-        <v>42428</v>
+        <v>42538</v>
       </c>
       <c r="E49" s="7">
         <v>175</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="5">
-        <v>4910</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="9">
-        <v>42400</v>
+        <v>42647</v>
       </c>
       <c r="E50" s="7">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50" s="5">
-        <v>4930</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="9">
-        <v>42730</v>
+        <v>42546</v>
       </c>
       <c r="E51" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H51" s="5">
-        <v>4620</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="9">
-        <v>42546</v>
+        <v>42398</v>
       </c>
       <c r="E52" s="7">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H52" s="5">
-        <v>4700</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="9">
-        <v>42469</v>
+        <v>42408</v>
       </c>
       <c r="E53" s="7">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H53" s="5">
-        <v>4710</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2249,184 +2556,184 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="9">
-        <v>42508</v>
+        <v>42371</v>
       </c>
       <c r="E55" s="7">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H55" s="5">
-        <v>4830</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="9">
-        <v>42704</v>
+        <v>42670</v>
       </c>
       <c r="E56" s="7">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="5">
-        <v>4850</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="9">
-        <v>42443</v>
+        <v>42444</v>
       </c>
       <c r="E57" s="7">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H57" s="5">
-        <v>4880</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="9">
-        <v>42680</v>
+        <v>42584</v>
       </c>
       <c r="E58" s="7">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H58" s="5">
-        <v>4890</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="9">
-        <v>42573</v>
+        <v>42436</v>
       </c>
       <c r="E59" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H59" s="5">
-        <v>4910</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="9">
-        <v>42411</v>
+        <v>42583</v>
       </c>
       <c r="E60" s="7">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H60" s="5">
-        <v>4930</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="9">
-        <v>42414</v>
+        <v>42704</v>
       </c>
       <c r="E61" s="7">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" s="5">
-        <v>4950</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2460,23 +2767,157 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2">
+        <v>45871</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3">
+        <v>75621</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4">
+        <v>92447</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5">
+        <v>48678</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6">
+        <v>38785</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7">
+        <v>27869</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
